--- a/Data/DM/11226681450ADJ DM.xlsx
+++ b/Data/DM/11226681450ADJ DM.xlsx
@@ -136,19 +136,19 @@
     <x:t/>
   </x:si>
   <x:si>
+    <x:t>-385.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>910-002225</x:t>
+  </x:si>
+  <x:si>
     <x:t>100288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>910-002225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-385.84</x:t>
   </x:si>
   <x:si>
     <x:t>886660</x:t>
@@ -703,28 +703,28 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="O3" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="P3" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
         <x:v>27</x:v>
@@ -839,28 +839,28 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="O5" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="P5" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="s">
         <x:v>27</x:v>
